--- a/results/Distorted_greedy/dataset_01/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/Distorted_greedy/dataset_01/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,64 +579,64 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="Q2">
-        <v>1.693779060867851</v>
+        <v>1.79508725932073</v>
       </c>
       <c r="R2">
-        <v>68.65552347830371</v>
+        <v>161.2456370339635</v>
       </c>
       <c r="S2">
-        <v>5.44</v>
+        <v>6.02</v>
       </c>
       <c r="T2">
-        <v>5.44</v>
+        <v>6.02</v>
       </c>
       <c r="U2">
-        <v>1.693779060867851</v>
+        <v>1.79508725932073</v>
       </c>
       <c r="V2">
-        <v>68.65552347830371</v>
+        <v>161.2456370339635</v>
       </c>
       <c r="W2">
-        <v>653</v>
+        <v>513</v>
       </c>
       <c r="X2">
         <v>764</v>
       </c>
       <c r="Y2">
-        <v>653</v>
+        <v>513</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -659,64 +659,64 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>511</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>190</v>
+        <v>461</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
-        <v>190</v>
+        <v>461</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>220</v>
+        <v>511</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q3">
-        <v>1.992430164690206</v>
+        <v>2.324346584775558</v>
       </c>
       <c r="R3">
-        <v>130.2270950592938</v>
+        <v>344.7826707612221</v>
       </c>
       <c r="S3">
-        <v>7.333333333333333</v>
+        <v>10.22</v>
       </c>
       <c r="T3">
-        <v>7.333333333333333</v>
+        <v>10.22</v>
       </c>
       <c r="U3">
-        <v>1.992430164690206</v>
+        <v>2.324346584775558</v>
       </c>
       <c r="V3">
-        <v>130.2270950592938</v>
+        <v>344.7826707612221</v>
       </c>
       <c r="W3">
-        <v>1466</v>
+        <v>1195</v>
       </c>
       <c r="X3">
         <v>1656</v>
       </c>
       <c r="Y3">
-        <v>1466</v>
+        <v>1195</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -739,64 +739,64 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>171</v>
+        <v>429</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I4">
-        <v>161</v>
+        <v>364</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
-        <v>161</v>
+        <v>364</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>171</v>
+        <v>429</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="Q4">
-        <v>2.839078463508614</v>
+        <v>1.88706964903238</v>
       </c>
       <c r="R4">
-        <v>132.6092153649139</v>
+        <v>241.3404728128953</v>
       </c>
       <c r="S4">
-        <v>17.1</v>
+        <v>6.6</v>
       </c>
       <c r="T4">
-        <v>17.1</v>
+        <v>6.6</v>
       </c>
       <c r="U4">
-        <v>2.839078463508614</v>
+        <v>1.88706964903238</v>
       </c>
       <c r="V4">
-        <v>132.6092153649139</v>
+        <v>241.3404728128953</v>
       </c>
       <c r="W4">
-        <v>1068</v>
+        <v>865</v>
       </c>
       <c r="X4">
         <v>1229</v>
       </c>
       <c r="Y4">
-        <v>1068</v>
+        <v>865</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -819,64 +819,64 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K5">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q5">
-        <v>2.740840023925201</v>
+        <v>2.635479508267375</v>
       </c>
       <c r="R5">
-        <v>117.591599760748</v>
+        <v>206.2904098346525</v>
       </c>
       <c r="S5">
-        <v>15.5</v>
+        <v>13.95</v>
       </c>
       <c r="T5">
-        <v>15.5</v>
+        <v>13.95</v>
       </c>
       <c r="U5">
-        <v>2.740840023925201</v>
+        <v>2.635479508267375</v>
       </c>
       <c r="V5">
-        <v>117.591599760748</v>
+        <v>206.2904098346525</v>
       </c>
       <c r="W5">
-        <v>642</v>
+        <v>528</v>
       </c>
       <c r="X5">
         <v>787</v>
       </c>
       <c r="Y5">
-        <v>642</v>
+        <v>528</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -979,64 +979,64 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>267</v>
+        <v>714</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I7">
-        <v>227</v>
+        <v>644</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K7">
-        <v>227</v>
+        <v>644</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>267</v>
+        <v>714</v>
       </c>
       <c r="P7">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Q7">
-        <v>1.898369204286313</v>
+        <v>2.322387720290225</v>
       </c>
       <c r="R7">
-        <v>151.0652318285475</v>
+        <v>481.4328595796842</v>
       </c>
       <c r="S7">
-        <v>6.675</v>
+        <v>10.2</v>
       </c>
       <c r="T7">
-        <v>6.675</v>
+        <v>10.2</v>
       </c>
       <c r="U7">
-        <v>1.898369204286313</v>
+        <v>2.322387720290225</v>
       </c>
       <c r="V7">
-        <v>151.0652318285475</v>
+        <v>481.4328595796842</v>
       </c>
       <c r="W7">
-        <v>1434</v>
+        <v>1017</v>
       </c>
       <c r="X7">
         <v>1661</v>
       </c>
       <c r="Y7">
-        <v>1434</v>
+        <v>1017</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1059,64 +1059,64 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I8">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K8">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="P8">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="Q8">
-        <v>1.599387576580599</v>
+        <v>1.551169004310125</v>
       </c>
       <c r="R8">
-        <v>47.01224846838802</v>
+        <v>114.7880427715634</v>
       </c>
       <c r="S8">
-        <v>4.95</v>
+        <v>4.716981132075472</v>
       </c>
       <c r="T8">
-        <v>4.95</v>
+        <v>4.716981132075472</v>
       </c>
       <c r="U8">
-        <v>1.599387576580599</v>
+        <v>1.551169004310125</v>
       </c>
       <c r="V8">
-        <v>47.01224846838802</v>
+        <v>114.7880427715634</v>
       </c>
       <c r="W8">
-        <v>586</v>
+        <v>468</v>
       </c>
       <c r="X8">
         <v>665</v>
       </c>
       <c r="Y8">
-        <v>586</v>
+        <v>468</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1139,64 +1139,64 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="I9">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K9">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="P9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="Q9">
-        <v>1.845826690498331</v>
+        <v>1.110660627184284</v>
       </c>
       <c r="R9">
-        <v>104.6251992850501</v>
+        <v>101.8273310097288</v>
       </c>
       <c r="S9">
-        <v>6.333333333333333</v>
+        <v>3.036363636363636</v>
       </c>
       <c r="T9">
-        <v>6.333333333333333</v>
+        <v>3.036363636363636</v>
       </c>
       <c r="U9">
-        <v>1.845826690498331</v>
+        <v>1.110660627184284</v>
       </c>
       <c r="V9">
-        <v>104.6251992850501</v>
+        <v>101.8273310097288</v>
       </c>
       <c r="W9">
-        <v>928</v>
+        <v>864</v>
       </c>
       <c r="X9">
         <v>1088</v>
       </c>
       <c r="Y9">
-        <v>928</v>
+        <v>864</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1219,64 +1219,64 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I10">
-        <v>139</v>
+        <v>375</v>
       </c>
       <c r="J10">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K10">
-        <v>139</v>
+        <v>375</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="P10">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2.532373187026924</v>
+        <v>2.362304327695668</v>
       </c>
       <c r="R10">
-        <v>108.6115217556769</v>
+        <v>282.8701312198689</v>
       </c>
       <c r="S10">
-        <v>12.58333333333333</v>
+        <v>10.61538461538461</v>
       </c>
       <c r="T10">
-        <v>12.58333333333333</v>
+        <v>10.61538461538461</v>
       </c>
       <c r="U10">
-        <v>2.532373187026924</v>
+        <v>2.362304327695668</v>
       </c>
       <c r="V10">
-        <v>108.6115217556769</v>
+        <v>282.8701312198689</v>
       </c>
       <c r="W10">
-        <v>858</v>
+        <v>622</v>
       </c>
       <c r="X10">
         <v>997</v>
       </c>
       <c r="Y10">
-        <v>858</v>
+        <v>622</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1299,64 +1299,64 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="P11">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="Q11">
-        <v>1.021651247531981</v>
+        <v>0.8472978603872037</v>
       </c>
       <c r="R11">
-        <v>13.61027754442434</v>
+        <v>23.32970270141422</v>
       </c>
       <c r="S11">
-        <v>2.777777777777778</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="T11">
-        <v>2.777777777777778</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="U11">
-        <v>1.021651247531981</v>
+        <v>0.8472978603872037</v>
       </c>
       <c r="V11">
-        <v>13.61027754442434</v>
+        <v>23.32970270141422</v>
       </c>
       <c r="W11">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="X11">
         <v>510</v>
       </c>
       <c r="Y11">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="Z11">
         <v>1</v>
